--- a/TP Entrega 2/Ayuda/gci.xlsx
+++ b/TP Entrega 2/Ayuda/gci.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyl\Documents\GitHub\LyC-2C2019\TP Entrega 2\Ayuda\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="16515" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="16515" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DECISION" sheetId="1" r:id="rId1"/>
     <sheet name="REPEAT" sheetId="2" r:id="rId2"/>
     <sheet name="FILTER" sheetId="5" r:id="rId3"/>
-    <sheet name="INLIST" sheetId="4" r:id="rId4"/>
-    <sheet name="MINIMO" sheetId="6" r:id="rId5"/>
+    <sheet name="FILTER2" sheetId="7" r:id="rId4"/>
+    <sheet name="INLIST" sheetId="4" r:id="rId5"/>
+    <sheet name="MINIMO" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="107">
   <si>
     <t>DECISION</t>
   </si>
@@ -1558,116 +1564,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">op_mayor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tipo_salto =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BLE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>";} // JLE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">op_menor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tipo_salto =</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>BGE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>";} //JGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">repeat </t>
     </r>
     <r>
@@ -2679,12 +2575,1238 @@
       <t>FILTER_CONDICION</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TERMINO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op_mult </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FACTOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{insertar_polaca(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPRESION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op_suma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TERMINO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{insertar_polaca(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_distinto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BEQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_igual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BNE"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_menor_igual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BGT"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_mayor_igual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BLT"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_menor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BGE"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">op_mayor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ tipo_salto = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"BLE"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ insertar_polaca(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); insertar_polaca(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tipo_salto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>); apilar(); insertar_espacio_polaca(); avanzar(); }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op_or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filter par_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> separador cor_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*/Vaciar la lista aca/*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cor_c par_c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filter par_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> separador cor_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cor_c par_c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">op_or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">guion_bajo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMPARACION EXPRESION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPRESION COMPARACION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guion_bajo</t>
+    </r>
+  </si>
+  <si>
+    <t>id {insertar_polaca(id); insertar_expresion(); insertar_polaca(CMP); insertar_polaca(tipo_salto); apilar(); avanzar(); insertar_polaca(aux); insertar_polaca(id); insertar_polaca(=); insertar_polaca(BI); apilar(); avanzar(); }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variable </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cantidad_iteracion = 0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para contar la cantidad de iteraciones del filter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ CMP, salto, apilar, avanzar}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op_and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FILTER_CONDICION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ CMP, salto, apilar, avanzar}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">guion_bajo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMPARACION EXPRESION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPRESION COMPARACION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guion_bajo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FILTER_CONDICION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ CMP, salto, apilar, avanzar}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insertar_polaca(AUX + cantidad_iteracion) ----&gt; busco en la TS el valor de esta variable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ CMP, salto_invertido, apilar, avanzar}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op_or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_CONDICION</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { CMP, salto, desapilar, escribir #posActual+1, apilar, avanzar}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> separador id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aca se repite la condicion tantas veces hasta que no haya mas ID, si hay un filter que hay que volver a repetir, no hacerlo, en su lugar usar AUX + cantidad_iteracion (llegado a este punto, ya tiene asignada la variable que devolvio el filter)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } { desapilar, escribir #posActual, CONDICION_AND, }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada vez que compara cada variable, al final, hay un BI para evitar comparar el resto si cumplio con la condicion, en Pila_2 guardo esa posicion, y cant_variables para saber cuantas posiciones escribir </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filter par_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FILTER_LISTA_CONDICION </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{cantidad_iteracion++, AUX + cantidad_iteracion, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, =,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BI, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escribir numero iteracion y apilar2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, avanzar }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">separador cor_a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER_LISTA_VARIABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{AUX + cantida_iteracion, 0, =, desapilar2, escribir }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cor_c par_c</t>
+    </r>
+  </si>
+  <si>
+    <t>escribir numero iteracion y apilar2: cada BI final de cada variable lleva a una misma posicion, al final, para evitar problemas en anidamientos, escribo, en la posicion que apilo, el numero de iteracion, de esta forma desapilo preguntando por el numero de iteracion (la posicion apilada tiene que tener la iteracion actual)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2813,8 +3935,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2842,6 +3971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,7 +4045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2956,6 +4091,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,32 +4144,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3026,7 +4156,21 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3036,6 +4180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3133,7 +4280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3168,7 +4315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3379,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:W11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3390,76 +4537,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
@@ -3481,61 +4628,61 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
@@ -3561,23 +4708,23 @@
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -3586,29 +4733,29 @@
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3617,29 +4764,29 @@
       <c r="B12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3648,29 +4795,29 @@
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3679,23 +4826,23 @@
       <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3704,23 +4851,23 @@
       <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3729,23 +4876,23 @@
       <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -3754,23 +4901,23 @@
       <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -3779,23 +4926,23 @@
       <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3804,23 +4951,23 @@
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="C19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -3829,23 +4976,23 @@
       <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -3854,23 +5001,23 @@
       <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3879,23 +5026,23 @@
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3904,23 +5051,23 @@
       <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3929,23 +5076,23 @@
       <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3954,23 +5101,23 @@
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3979,23 +5126,23 @@
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -4004,23 +5151,23 @@
       <c r="B27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4029,23 +5176,23 @@
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4054,417 +5201,417 @@
       <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
@@ -5458,33 +6605,33 @@
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
+      <c r="B2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -5546,403 +6693,403 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="B9" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5975,8 +7122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T15" sqref="E15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5998,13 +7145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -6039,13 +7186,13 @@
       <c r="AI1" s="37"/>
     </row>
     <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="A2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -6080,13 +7227,13 @@
       <c r="AI2" s="37"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -6121,13 +7268,13 @@
       <c r="AI3" s="37"/>
     </row>
     <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -6162,13 +7309,13 @@
       <c r="AI4" s="37"/>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="38" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -6203,13 +7350,13 @@
       <c r="AI5" s="37"/>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
@@ -6244,13 +7391,13 @@
       <c r="AI6" s="37"/>
     </row>
     <row r="7" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -6285,13 +7432,13 @@
       <c r="AI7" s="37"/>
     </row>
     <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="A8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -6326,13 +7473,13 @@
       <c r="AI8" s="37"/>
     </row>
     <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
@@ -6367,146 +7514,146 @@
       <c r="AI9" s="37"/>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I12" s="41"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="31">
+      <c r="G15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="21">
+        <v>13</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="21">
+        <v>18</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="19">
         <v>4</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="W15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>35</v>
+      </c>
+      <c r="AG15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="33">
-        <v>13</v>
-      </c>
-      <c r="K15" s="31" t="s">
+      <c r="AH15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="33">
+      <c r="AI15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="32" t="s">
+      <c r="AJ15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="31">
-        <v>38</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" s="31">
-        <v>4</v>
-      </c>
-      <c r="W15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="33">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD15" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF15" s="33">
-        <v>35</v>
-      </c>
-      <c r="AG15" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK15" s="31">
+      <c r="AK15" s="19">
         <v>38</v>
       </c>
     </row>
@@ -6615,56 +7762,56 @@
       </c>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="22">
         <v>0</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="31">
+      <c r="G18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="19">
         <v>5</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
@@ -6745,6 +7892,9 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D7:AI7"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D3:AI3"/>
     <mergeCell ref="D4:AI4"/>
     <mergeCell ref="D5:AI5"/>
@@ -6752,11 +7902,8 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:AI1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D2:AI2"/>
-    <mergeCell ref="D7:AI7"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6764,6 +7911,2910 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68:AI68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37"/>
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" s="37"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="37"/>
+      <c r="AF61" s="37"/>
+      <c r="AG61" s="37"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="37"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+      <c r="AA62" s="37"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="37"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+      <c r="AA63" s="37"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="37"/>
+      <c r="AF63" s="37"/>
+      <c r="AG63" s="37"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
+      <c r="AA64" s="37"/>
+      <c r="AB64" s="37"/>
+      <c r="AC64" s="37"/>
+      <c r="AD64" s="37"/>
+      <c r="AE64" s="37"/>
+      <c r="AF64" s="37"/>
+      <c r="AG64" s="37"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" s="37"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="37"/>
+      <c r="AE65" s="37"/>
+      <c r="AF65" s="37"/>
+      <c r="AG65" s="37"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="37"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A66" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="37"/>
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+    </row>
+    <row r="67" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+      <c r="AA67" s="37"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="37"/>
+      <c r="AE67" s="37"/>
+      <c r="AF67" s="37"/>
+      <c r="AG67" s="37"/>
+      <c r="AH67" s="37"/>
+      <c r="AI67" s="37"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A68" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+      <c r="AA68" s="37"/>
+      <c r="AB68" s="37"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="37"/>
+      <c r="AE68" s="37"/>
+      <c r="AF68" s="37"/>
+      <c r="AG68" s="37"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" s="37"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+      <c r="AA69" s="37"/>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="37"/>
+      <c r="AE69" s="37"/>
+      <c r="AF69" s="37"/>
+      <c r="AG69" s="37"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" s="37"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="37"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="37"/>
+      <c r="AE70" s="37"/>
+      <c r="AF70" s="37"/>
+      <c r="AG70" s="37"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" s="37"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A71" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="37"/>
+      <c r="AD71" s="37"/>
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="37"/>
+      <c r="AG71" s="37"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="37"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A72" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37"/>
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="37"/>
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="37"/>
+      <c r="AI72" s="37"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="37"/>
+      <c r="AG73" s="37"/>
+      <c r="AH73" s="37"/>
+      <c r="AI73" s="37"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="37"/>
+      <c r="AE74" s="37"/>
+      <c r="AF74" s="37"/>
+      <c r="AG74" s="37"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" s="37"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A75" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37"/>
+      <c r="AA75" s="37"/>
+      <c r="AB75" s="37"/>
+      <c r="AC75" s="37"/>
+      <c r="AD75" s="37"/>
+      <c r="AE75" s="37"/>
+      <c r="AF75" s="37"/>
+      <c r="AG75" s="37"/>
+      <c r="AH75" s="37"/>
+      <c r="AI75" s="37"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A76" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+      <c r="AA76" s="37"/>
+      <c r="AB76" s="37"/>
+      <c r="AC76" s="37"/>
+      <c r="AD76" s="37"/>
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="37"/>
+      <c r="AG76" s="37"/>
+      <c r="AH76" s="37"/>
+      <c r="AI76" s="37"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A77" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
+      <c r="Z77" s="37"/>
+      <c r="AA77" s="37"/>
+      <c r="AB77" s="37"/>
+      <c r="AC77" s="37"/>
+      <c r="AD77" s="37"/>
+      <c r="AE77" s="37"/>
+      <c r="AF77" s="37"/>
+      <c r="AG77" s="37"/>
+      <c r="AH77" s="37"/>
+      <c r="AI77" s="37"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A78" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
+      <c r="Z78" s="37"/>
+      <c r="AA78" s="37"/>
+      <c r="AB78" s="37"/>
+      <c r="AC78" s="37"/>
+      <c r="AD78" s="37"/>
+      <c r="AE78" s="37"/>
+      <c r="AF78" s="37"/>
+      <c r="AG78" s="37"/>
+      <c r="AH78" s="37"/>
+      <c r="AI78" s="37"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
+      <c r="Z79" s="37"/>
+      <c r="AA79" s="37"/>
+      <c r="AB79" s="37"/>
+      <c r="AC79" s="37"/>
+      <c r="AD79" s="37"/>
+      <c r="AE79" s="37"/>
+      <c r="AF79" s="37"/>
+      <c r="AG79" s="37"/>
+      <c r="AH79" s="37"/>
+      <c r="AI79" s="37"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+      <c r="AA80" s="37"/>
+      <c r="AB80" s="37"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="37"/>
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="37"/>
+      <c r="AG80" s="37"/>
+      <c r="AH80" s="37"/>
+      <c r="AI80" s="37"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+      <c r="AA81" s="37"/>
+      <c r="AB81" s="37"/>
+      <c r="AC81" s="37"/>
+      <c r="AD81" s="37"/>
+      <c r="AE81" s="37"/>
+      <c r="AF81" s="37"/>
+      <c r="AG81" s="37"/>
+      <c r="AH81" s="37"/>
+      <c r="AI81" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="131">
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:AI81"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A55:P56"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:AI78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:AI79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:AI80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:AI75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:AI76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:AI77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:AI72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:AI73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:AI74"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:AI69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:AI70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:AI71"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:AI66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:AI67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:AI68"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:AI63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:AI64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:AI65"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:AI60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:AI61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:AI62"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:AI44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:AI45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:AI46"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:AI41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:AI42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:AI43"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:AI38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:AI39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:AI40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:AI35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:AI36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:AI37"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:AI32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:AI33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:AI34"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:AI29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:AI30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:AI31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:AI26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:AI27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:AI28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:AI2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AI3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AI4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:AI5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AI7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:AI8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:AI9"/>
+    <mergeCell ref="D15:AI15"/>
+    <mergeCell ref="D16:AI16"/>
+    <mergeCell ref="D17:AI17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D10:AI10"/>
+    <mergeCell ref="D11:AI11"/>
+    <mergeCell ref="D12:AI12"/>
+    <mergeCell ref="D13:AI13"/>
+    <mergeCell ref="D14:AI14"/>
+    <mergeCell ref="D18:AI18"/>
+    <mergeCell ref="D19:AI19"/>
+    <mergeCell ref="D20:AI20"/>
+    <mergeCell ref="D21:AI21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6777,7 +10828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
@@ -6789,201 +10840,201 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+        <v>58</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+        <v>61</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/TP Entrega 2/Ayuda/gci.xlsx
+++ b/TP Entrega 2/Ayuda/gci.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyl\Documents\GitHub\LyC-2C2019\TP Entrega 2\Ayuda\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="16515" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="16515" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="DECISION" sheetId="1" r:id="rId1"/>
@@ -3805,7 +3800,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4111,13 +4106,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4126,22 +4121,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4150,17 +4148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4168,7 +4160,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4280,7 +4275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4315,7 +4310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4526,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:Q10"/>
     </sheetView>
   </sheetViews>
@@ -4537,60 +4532,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="28"/>
@@ -4628,7 +4623,7 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="28"/>
@@ -4647,7 +4642,7 @@
       <c r="P6" s="29"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="28"/>
@@ -4666,7 +4661,7 @@
       <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="28"/>
@@ -4708,23 +4703,23 @@
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4733,29 +4728,29 @@
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4764,29 +4759,29 @@
       <c r="B12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4795,29 +4790,29 @@
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4826,23 +4821,23 @@
       <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4851,23 +4846,23 @@
       <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4876,23 +4871,23 @@
       <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4901,23 +4896,23 @@
       <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4926,23 +4921,23 @@
       <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4951,23 +4946,23 @@
       <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4976,23 +4971,23 @@
       <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -5001,23 +4996,23 @@
       <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -5026,23 +5021,23 @@
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -5051,23 +5046,23 @@
       <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -5076,23 +5071,23 @@
       <c r="B24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -5101,7 +5096,7 @@
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="33"/>
@@ -5126,23 +5121,23 @@
       <c r="B26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5151,23 +5146,23 @@
       <c r="B27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5176,23 +5171,23 @@
       <c r="B28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -5201,417 +5196,417 @@
       <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
@@ -6553,17 +6548,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="C13:W13"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="C14:Q14"/>
     <mergeCell ref="B31:O52"/>
     <mergeCell ref="C11:W11"/>
     <mergeCell ref="B8:P8"/>
@@ -6580,6 +6564,17 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C15:Q15"/>
     <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="B1:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="C13:W13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6605,33 +6600,33 @@
       <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -6693,299 +6688,299 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="33"/>
@@ -7007,97 +7002,92 @@
       <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B21:P21"/>
     <mergeCell ref="B22:P22"/>
     <mergeCell ref="B6:V6"/>
     <mergeCell ref="B14:P14"/>
@@ -7112,6 +7102,11 @@
     <mergeCell ref="B11:P11"/>
     <mergeCell ref="B12:P12"/>
     <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B21:P21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7150,40 +7145,40 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -7191,40 +7186,40 @@
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
@@ -7232,40 +7227,40 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
@@ -7273,40 +7268,40 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
@@ -7314,40 +7309,40 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
     </row>
     <row r="6" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -7355,40 +7350,40 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
@@ -7396,40 +7391,40 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
     </row>
     <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
@@ -7437,40 +7432,40 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
     </row>
     <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -7478,45 +7473,45 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -7886,15 +7881,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D8:AI8"/>
-    <mergeCell ref="D9:AI9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D7:AI7"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D3:AI3"/>
     <mergeCell ref="D4:AI4"/>
     <mergeCell ref="D5:AI5"/>
@@ -7905,6 +7891,15 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D2:AI2"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D8:AI8"/>
+    <mergeCell ref="D9:AI9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D7:AI7"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7914,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:AI68"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:AI61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7926,40 +7921,40 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
@@ -7967,40 +7962,40 @@
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
@@ -8008,40 +8003,40 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
@@ -8049,40 +8044,40 @@
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
@@ -8090,40 +8085,40 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
@@ -8131,40 +8126,40 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
@@ -8172,40 +8167,40 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
@@ -8213,40 +8208,40 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -8254,40 +8249,40 @@
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
@@ -8295,40 +8290,40 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="38"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
@@ -8336,40 +8331,40 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
@@ -8377,40 +8372,40 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -8418,40 +8413,40 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
@@ -8459,40 +8454,40 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -8500,40 +8495,40 @@
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
@@ -8541,40 +8536,40 @@
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -8582,40 +8577,40 @@
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="38"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
@@ -8623,40 +8618,40 @@
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
@@ -8664,40 +8659,40 @@
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
@@ -8705,40 +8700,40 @@
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
@@ -8746,40 +8741,40 @@
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -8787,40 +8782,40 @@
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="37"/>
-      <c r="AB26" s="37"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
@@ -8828,40 +8823,40 @@
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
@@ -8869,40 +8864,40 @@
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -8910,40 +8905,40 @@
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -8951,40 +8946,40 @@
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
@@ -8992,40 +8987,40 @@
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -9033,40 +9028,40 @@
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="38"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -9074,40 +9069,40 @@
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
@@ -9115,40 +9110,40 @@
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
@@ -9156,40 +9151,40 @@
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="38"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -9197,40 +9192,40 @@
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="37"/>
-      <c r="AB36" s="37"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="37"/>
-      <c r="AE36" s="37"/>
-      <c r="AF36" s="37"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="38"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="38"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
@@ -9238,40 +9233,40 @@
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
@@ -9279,40 +9274,40 @@
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
@@ -9320,40 +9315,40 @@
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
@@ -9361,40 +9356,40 @@
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
@@ -9402,40 +9397,40 @@
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -9443,40 +9438,40 @@
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
@@ -9484,40 +9479,40 @@
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
@@ -9525,40 +9520,40 @@
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
@@ -9566,40 +9561,40 @@
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
@@ -9607,171 +9602,171 @@
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
@@ -9779,40 +9774,40 @@
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="37"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="37"/>
-      <c r="AI60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="38"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="38"/>
+      <c r="AI60" s="38"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
@@ -9820,40 +9815,40 @@
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="37"/>
-      <c r="AF61" s="37"/>
-      <c r="AG61" s="37"/>
-      <c r="AH61" s="37"/>
-      <c r="AI61" s="37"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="38"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
@@ -9861,40 +9856,40 @@
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
-      <c r="D62" s="37" t="s">
+      <c r="D62" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="37"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="37"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="38"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
@@ -9902,40 +9897,40 @@
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="37"/>
-      <c r="AB63" s="37"/>
-      <c r="AC63" s="37"/>
-      <c r="AD63" s="37"/>
-      <c r="AE63" s="37"/>
-      <c r="AF63" s="37"/>
-      <c r="AG63" s="37"/>
-      <c r="AH63" s="37"/>
-      <c r="AI63" s="37"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="38"/>
+      <c r="AD63" s="38"/>
+      <c r="AE63" s="38"/>
+      <c r="AF63" s="38"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
+      <c r="AI63" s="38"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
@@ -9943,40 +9938,40 @@
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="37"/>
-      <c r="AE64" s="37"/>
-      <c r="AF64" s="37"/>
-      <c r="AG64" s="37"/>
-      <c r="AH64" s="37"/>
-      <c r="AI64" s="37"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="38"/>
+      <c r="AC64" s="38"/>
+      <c r="AD64" s="38"/>
+      <c r="AE64" s="38"/>
+      <c r="AF64" s="38"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="38"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
@@ -9984,40 +9979,40 @@
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="37"/>
-      <c r="AE65" s="37"/>
-      <c r="AF65" s="37"/>
-      <c r="AG65" s="37"/>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
@@ -10025,40 +10020,40 @@
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="37"/>
-      <c r="AB66" s="37"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="37"/>
-      <c r="AE66" s="37"/>
-      <c r="AF66" s="37"/>
-      <c r="AG66" s="37"/>
-      <c r="AH66" s="37"/>
-      <c r="AI66" s="37"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="38"/>
     </row>
     <row r="67" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -10066,40 +10061,40 @@
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
-      <c r="AA67" s="37"/>
-      <c r="AB67" s="37"/>
-      <c r="AC67" s="37"/>
-      <c r="AD67" s="37"/>
-      <c r="AE67" s="37"/>
-      <c r="AF67" s="37"/>
-      <c r="AG67" s="37"/>
-      <c r="AH67" s="37"/>
-      <c r="AI67" s="37"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="38"/>
+      <c r="AD67" s="38"/>
+      <c r="AE67" s="38"/>
+      <c r="AF67" s="38"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="38"/>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
@@ -10107,40 +10102,40 @@
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="37"/>
-      <c r="AB68" s="37"/>
-      <c r="AC68" s="37"/>
-      <c r="AD68" s="37"/>
-      <c r="AE68" s="37"/>
-      <c r="AF68" s="37"/>
-      <c r="AG68" s="37"/>
-      <c r="AH68" s="37"/>
-      <c r="AI68" s="37"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="38"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="38"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
@@ -10148,40 +10143,40 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="37"/>
-      <c r="AB69" s="37"/>
-      <c r="AC69" s="37"/>
-      <c r="AD69" s="37"/>
-      <c r="AE69" s="37"/>
-      <c r="AF69" s="37"/>
-      <c r="AG69" s="37"/>
-      <c r="AH69" s="37"/>
-      <c r="AI69" s="37"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="38"/>
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="38"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="39" t="s">
@@ -10189,40 +10184,40 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="37"/>
-      <c r="AB70" s="37"/>
-      <c r="AC70" s="37"/>
-      <c r="AD70" s="37"/>
-      <c r="AE70" s="37"/>
-      <c r="AF70" s="37"/>
-      <c r="AG70" s="37"/>
-      <c r="AH70" s="37"/>
-      <c r="AI70" s="37"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="38"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="38"/>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
@@ -10230,40 +10225,40 @@
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
-      <c r="D71" s="37" t="s">
+      <c r="D71" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="37"/>
-      <c r="AB71" s="37"/>
-      <c r="AC71" s="37"/>
-      <c r="AD71" s="37"/>
-      <c r="AE71" s="37"/>
-      <c r="AF71" s="37"/>
-      <c r="AG71" s="37"/>
-      <c r="AH71" s="37"/>
-      <c r="AI71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="38"/>
+      <c r="AB71" s="38"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="38"/>
+      <c r="AF71" s="38"/>
+      <c r="AG71" s="38"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="38"/>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="39" t="s">
@@ -10271,40 +10266,40 @@
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
-      <c r="AA72" s="37"/>
-      <c r="AB72" s="37"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="37"/>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="37"/>
-      <c r="AG72" s="37"/>
-      <c r="AH72" s="37"/>
-      <c r="AI72" s="37"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
@@ -10312,40 +10307,40 @@
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="37"/>
-      <c r="AD73" s="37"/>
-      <c r="AE73" s="37"/>
-      <c r="AF73" s="37"/>
-      <c r="AG73" s="37"/>
-      <c r="AH73" s="37"/>
-      <c r="AI73" s="37"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="38"/>
+      <c r="AB73" s="38"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="38"/>
+      <c r="AE73" s="38"/>
+      <c r="AF73" s="38"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
+      <c r="AI73" s="38"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="39" t="s">
@@ -10353,40 +10348,40 @@
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
-      <c r="D74" s="37" t="s">
+      <c r="D74" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="37"/>
-      <c r="AD74" s="37"/>
-      <c r="AE74" s="37"/>
-      <c r="AF74" s="37"/>
-      <c r="AG74" s="37"/>
-      <c r="AH74" s="37"/>
-      <c r="AI74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="38"/>
+      <c r="AA74" s="38"/>
+      <c r="AB74" s="38"/>
+      <c r="AC74" s="38"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="38"/>
+      <c r="AF74" s="38"/>
+      <c r="AG74" s="38"/>
+      <c r="AH74" s="38"/>
+      <c r="AI74" s="38"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="39" t="s">
@@ -10394,40 +10389,40 @@
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="37"/>
-      <c r="AB75" s="37"/>
-      <c r="AC75" s="37"/>
-      <c r="AD75" s="37"/>
-      <c r="AE75" s="37"/>
-      <c r="AF75" s="37"/>
-      <c r="AG75" s="37"/>
-      <c r="AH75" s="37"/>
-      <c r="AI75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
@@ -10435,40 +10430,40 @@
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="37"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="37"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="37"/>
-      <c r="Y76" s="37"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="37"/>
-      <c r="AB76" s="37"/>
-      <c r="AC76" s="37"/>
-      <c r="AD76" s="37"/>
-      <c r="AE76" s="37"/>
-      <c r="AF76" s="37"/>
-      <c r="AG76" s="37"/>
-      <c r="AH76" s="37"/>
-      <c r="AI76" s="37"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
@@ -10476,40 +10471,40 @@
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="37"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="37"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="37"/>
-      <c r="X77" s="37"/>
-      <c r="Y77" s="37"/>
-      <c r="Z77" s="37"/>
-      <c r="AA77" s="37"/>
-      <c r="AB77" s="37"/>
-      <c r="AC77" s="37"/>
-      <c r="AD77" s="37"/>
-      <c r="AE77" s="37"/>
-      <c r="AF77" s="37"/>
-      <c r="AG77" s="37"/>
-      <c r="AH77" s="37"/>
-      <c r="AI77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
+      <c r="AA77" s="38"/>
+      <c r="AB77" s="38"/>
+      <c r="AC77" s="38"/>
+      <c r="AD77" s="38"/>
+      <c r="AE77" s="38"/>
+      <c r="AF77" s="38"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="38"/>
+      <c r="AI77" s="38"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
@@ -10517,40 +10512,40 @@
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="37"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="37"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="37"/>
-      <c r="X78" s="37"/>
-      <c r="Y78" s="37"/>
-      <c r="Z78" s="37"/>
-      <c r="AA78" s="37"/>
-      <c r="AB78" s="37"/>
-      <c r="AC78" s="37"/>
-      <c r="AD78" s="37"/>
-      <c r="AE78" s="37"/>
-      <c r="AF78" s="37"/>
-      <c r="AG78" s="37"/>
-      <c r="AH78" s="37"/>
-      <c r="AI78" s="37"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="38"/>
+      <c r="AF78" s="38"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
@@ -10558,40 +10553,40 @@
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="37"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="37"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="37"/>
-      <c r="X79" s="37"/>
-      <c r="Y79" s="37"/>
-      <c r="Z79" s="37"/>
-      <c r="AA79" s="37"/>
-      <c r="AB79" s="37"/>
-      <c r="AC79" s="37"/>
-      <c r="AD79" s="37"/>
-      <c r="AE79" s="37"/>
-      <c r="AF79" s="37"/>
-      <c r="AG79" s="37"/>
-      <c r="AH79" s="37"/>
-      <c r="AI79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="38"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="38"/>
+      <c r="AF79" s="38"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
@@ -10599,40 +10594,40 @@
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="37" t="s">
+      <c r="D80" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="37"/>
-      <c r="X80" s="37"/>
-      <c r="Y80" s="37"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="37"/>
-      <c r="AB80" s="37"/>
-      <c r="AC80" s="37"/>
-      <c r="AD80" s="37"/>
-      <c r="AE80" s="37"/>
-      <c r="AF80" s="37"/>
-      <c r="AG80" s="37"/>
-      <c r="AH80" s="37"/>
-      <c r="AI80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="38"/>
+      <c r="Z80" s="38"/>
+      <c r="AA80" s="38"/>
+      <c r="AB80" s="38"/>
+      <c r="AC80" s="38"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="38"/>
+      <c r="AF80" s="38"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
@@ -10640,43 +10635,150 @@
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="37"/>
-      <c r="AB81" s="37"/>
-      <c r="AC81" s="37"/>
-      <c r="AD81" s="37"/>
-      <c r="AE81" s="37"/>
-      <c r="AF81" s="37"/>
-      <c r="AG81" s="37"/>
-      <c r="AH81" s="37"/>
-      <c r="AI81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+      <c r="M81" s="38"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="38"/>
+      <c r="Z81" s="38"/>
+      <c r="AA81" s="38"/>
+      <c r="AB81" s="38"/>
+      <c r="AC81" s="38"/>
+      <c r="AD81" s="38"/>
+      <c r="AE81" s="38"/>
+      <c r="AF81" s="38"/>
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="D18:AI18"/>
+    <mergeCell ref="D19:AI19"/>
+    <mergeCell ref="D20:AI20"/>
+    <mergeCell ref="D21:AI21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D15:AI15"/>
+    <mergeCell ref="D16:AI16"/>
+    <mergeCell ref="D17:AI17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D10:AI10"/>
+    <mergeCell ref="D11:AI11"/>
+    <mergeCell ref="D12:AI12"/>
+    <mergeCell ref="D13:AI13"/>
+    <mergeCell ref="D14:AI14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:AI26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:AI27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:AI28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:AI2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:AI3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:AI4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:AI5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:AI7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:AI8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:AI9"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:AI32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:AI33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:AI34"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:AI29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:AI30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:AI31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:AI38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:AI39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:AI40"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:AI35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:AI36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:AI37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:AI44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:AI45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:AI46"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:AI41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:AI42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:AI43"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:AI63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:AI64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:AI65"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:AI60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:AI61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:AI62"/>
+    <mergeCell ref="D69:AI69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:AI70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:AI71"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:AI66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:AI67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:AI68"/>
     <mergeCell ref="A53:O53"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="D81:AI81"/>
@@ -10701,113 +10803,6 @@
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="D74:AI74"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:AI69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:AI70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:AI71"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:AI66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:AI67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:AI68"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:AI63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:AI64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:AI65"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:AI60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:AI61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:AI62"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:AI44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:AI45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:AI46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:AI41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:AI42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:AI43"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:AI38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:AI39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:AI40"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:AI35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:AI36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:AI37"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:AI32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:AI33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:AI34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:AI29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:AI30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:AI31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:AI26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:AI27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:AI28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:AI2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:AI3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:AI4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:AI5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:AI6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:AI7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:AI8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:AI9"/>
-    <mergeCell ref="D15:AI15"/>
-    <mergeCell ref="D16:AI16"/>
-    <mergeCell ref="D17:AI17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D10:AI10"/>
-    <mergeCell ref="D11:AI11"/>
-    <mergeCell ref="D12:AI12"/>
-    <mergeCell ref="D13:AI13"/>
-    <mergeCell ref="D14:AI14"/>
-    <mergeCell ref="D18:AI18"/>
-    <mergeCell ref="D19:AI19"/>
-    <mergeCell ref="D20:AI20"/>
-    <mergeCell ref="D21:AI21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10842,199 +10837,199 @@
       <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
